--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{45892A90-9AB6-4840-88AC-46CCC0C42F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Empleado</t>
   </si>
@@ -58,16 +44,13 @@
   </si>
   <si>
     <t>2025-08-03</t>
-  </si>
-  <si>
-    <t>Nestor Xarpio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,21 +113,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -216,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -251,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,16 +400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,7 +440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -480,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -491,7 +462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -502,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -511,259 +482,6 @@
       </c>
       <c r="C7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{45892A90-9AB6-4840-88AC-46CCC0C42F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
   <si>
     <t>Empleado</t>
   </si>
@@ -44,13 +58,16 @@
   </si>
   <si>
     <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>Nestor Xarpio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +130,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +182,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,14 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,7 +458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -440,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -451,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -462,7 +491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -473,7 +502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -482,6 +511,259 @@
       </c>
       <c r="C7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{83A73D40-5DAF-F54C-BB37-626CD4198DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{821E490D-DDEA-454E-AA8C-70A8A93DCF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
